--- a/data/metadata/Informe-05-0709-070955-A-TC.xlsx
+++ b/data/metadata/Informe-05-0709-070955-A-TC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>n-accidentes</t>
   </si>
@@ -52,13 +52,13 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:grupo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:sexo</t>
-  </si>
-  <si>
-    <t>iaest-dimension:descripcion-ocupacion</t>
+    <t>iaest-measure:grupo</t>
+  </si>
+  <si>
+    <t>iaest-measure:sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:descripcion-ocupacion</t>
   </si>
   <si>
     <t>sdmx-dimension:refArea</t>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-grupo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-sexo.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-descripcion-ocupacion.xlsx</t>
   </si>
 </sst>
 </file>
@@ -223,13 +214,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -252,13 +243,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -273,15 +264,6 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-05-0709-070955-A-TC.xlsx
+++ b/data/metadata/Informe-05-0709-070955-A-TC.xlsx
@@ -11,75 +11,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
-  <si>
-    <t>n-accidentes</t>
-  </si>
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>grupo</t>
-  </si>
-  <si>
-    <t>sexo</t>
-  </si>
-  <si>
-    <t>descripcion-ocupacion</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+  <si>
+    <t>Descripción Ocupación</t>
+  </si>
+  <si>
+    <t>Comarca Código</t>
+  </si>
+  <si>
+    <t>CCAA Código</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>CCAA Nombre</t>
+  </si>
+  <si>
+    <t>Nº Accidentes</t>
+  </si>
+  <si>
+    <t>Comarca Nombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>iaest-measure:descripcion-ocupacion</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:grupo</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:n-accidentes</t>
   </si>
   <si>
-    <t>iaest-dimension:ccaa-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>iaest-measure:grupo</t>
-  </si>
-  <si>
     <t>iaest-measure:sexo</t>
   </si>
   <si>
-    <t>iaest-measure:descripcion-ocupacion</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
     <t>xsd:int</t>
   </si>
   <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
   </si>
   <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -179,90 +179,87 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
